--- a/Use Case 3/staff.xlsx
+++ b/Use Case 3/staff.xlsx
@@ -70,7 +70,7 @@
     <t>8cb2237d0679ca88db6464eac60da96345513964</t>
   </si>
   <si>
-    <t>&lt;memory at 0x7f3d5ca292c0&gt;</t>
+    <t>&lt;memory at 0x7fed096c12c0&gt;</t>
   </si>
 </sst>
 </file>
